--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf8-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf8-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfrl1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H2">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I2">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.123723333333333</v>
+        <v>0.667449</v>
       </c>
       <c r="N2">
-        <v>3.37117</v>
+        <v>2.002347</v>
       </c>
       <c r="O2">
-        <v>0.0874683595079124</v>
+        <v>0.05507918922684819</v>
       </c>
       <c r="P2">
-        <v>0.09211404964065721</v>
+        <v>0.05743692635237437</v>
       </c>
       <c r="Q2">
-        <v>0.2352855661077777</v>
+        <v>0.067291318248</v>
       </c>
       <c r="R2">
-        <v>2.11757009497</v>
+        <v>0.6056218642319999</v>
       </c>
       <c r="S2">
-        <v>0.04185376505859348</v>
+        <v>0.05507918922684819</v>
       </c>
       <c r="T2">
-        <v>0.05335086282106724</v>
+        <v>0.05743692635237437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H3">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I3">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.47633</v>
       </c>
       <c r="O3">
-        <v>0.7129007170798384</v>
+        <v>0.7558000582962523</v>
       </c>
       <c r="P3">
-        <v>0.7507648755663697</v>
+        <v>0.7881530736897923</v>
       </c>
       <c r="Q3">
-        <v>1.917667711392222</v>
+        <v>0.923375651831111</v>
       </c>
       <c r="R3">
-        <v>17.25900940253</v>
+        <v>8.310380866479999</v>
       </c>
       <c r="S3">
-        <v>0.3411242567098022</v>
+        <v>0.7558000582962523</v>
       </c>
       <c r="T3">
-        <v>0.4348300182596471</v>
+        <v>0.7881530736897923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H4">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I4">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.247236</v>
+        <v>0.4726029999999999</v>
       </c>
       <c r="N4">
-        <v>0.741708</v>
+        <v>1.417809</v>
       </c>
       <c r="O4">
-        <v>0.01924435195908088</v>
+        <v>0.0390001184602511</v>
       </c>
       <c r="P4">
-        <v>0.02026647351835493</v>
+        <v>0.04066956981718631</v>
       </c>
       <c r="Q4">
-        <v>0.051766356092</v>
+        <v>0.04764720432266666</v>
       </c>
       <c r="R4">
-        <v>0.465897204828</v>
+        <v>0.428824838904</v>
       </c>
       <c r="S4">
-        <v>0.009208456522239833</v>
+        <v>0.0390001184602511</v>
       </c>
       <c r="T4">
-        <v>0.01173799059711855</v>
+        <v>0.04066956981718631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H5">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I5">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.943811</v>
+        <v>1.4922995</v>
       </c>
       <c r="N5">
-        <v>3.887622</v>
+        <v>2.984599</v>
       </c>
       <c r="O5">
-        <v>0.1513023306716375</v>
+        <v>0.1231474562755071</v>
       </c>
       <c r="P5">
-        <v>0.106225614813881</v>
+        <v>0.08561263005581461</v>
       </c>
       <c r="Q5">
-        <v>0.406995795117</v>
+        <v>0.1504516458573333</v>
       </c>
       <c r="R5">
-        <v>2.441974770702</v>
+        <v>0.902709875144</v>
       </c>
       <c r="S5">
-        <v>0.07239843340351537</v>
+        <v>0.1231474562755071</v>
       </c>
       <c r="T5">
-        <v>0.06152403706195863</v>
+        <v>0.08561263005581461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H6">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I6">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,338 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.373651</v>
+        <v>0.3268606666666667</v>
       </c>
       <c r="N6">
-        <v>1.120953</v>
+        <v>0.9805820000000001</v>
       </c>
       <c r="O6">
-        <v>0.02908424078153073</v>
+        <v>0.0269731777411414</v>
       </c>
       <c r="P6">
-        <v>0.03062898646073726</v>
+        <v>0.02812780008483244</v>
       </c>
       <c r="Q6">
-        <v>0.07823517093033333</v>
+        <v>0.03295365659911111</v>
       </c>
       <c r="R6">
-        <v>0.704116538373</v>
+        <v>0.296582909392</v>
       </c>
       <c r="S6">
-        <v>0.01391686076457893</v>
+        <v>0.0269731777411414</v>
       </c>
       <c r="T6">
-        <v>0.01773977869163044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.2281945</v>
-      </c>
-      <c r="H7">
-        <v>0.456389</v>
-      </c>
-      <c r="I7">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J7">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.123723333333333</v>
-      </c>
-      <c r="N7">
-        <v>3.37117</v>
-      </c>
-      <c r="O7">
-        <v>0.0874683595079124</v>
-      </c>
-      <c r="P7">
-        <v>0.09211404964065721</v>
-      </c>
-      <c r="Q7">
-        <v>0.2564274841883333</v>
-      </c>
-      <c r="R7">
-        <v>1.53856490513</v>
-      </c>
-      <c r="S7">
-        <v>0.04561459444931892</v>
-      </c>
-      <c r="T7">
-        <v>0.03876318681958997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.2281945</v>
-      </c>
-      <c r="H8">
-        <v>0.456389</v>
-      </c>
-      <c r="I8">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J8">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.158776666666666</v>
-      </c>
-      <c r="N8">
-        <v>27.47633</v>
-      </c>
-      <c r="O8">
-        <v>0.7129007170798384</v>
-      </c>
-      <c r="P8">
-        <v>0.7507648755663697</v>
-      </c>
-      <c r="Q8">
-        <v>2.089982462061667</v>
-      </c>
-      <c r="R8">
-        <v>12.53989477237</v>
-      </c>
-      <c r="S8">
-        <v>0.3717764603700361</v>
-      </c>
-      <c r="T8">
-        <v>0.3159348573067227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.2281945</v>
-      </c>
-      <c r="H9">
-        <v>0.456389</v>
-      </c>
-      <c r="I9">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J9">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.247236</v>
-      </c>
-      <c r="N9">
-        <v>0.741708</v>
-      </c>
-      <c r="O9">
-        <v>0.01924435195908088</v>
-      </c>
-      <c r="P9">
-        <v>0.02026647351835493</v>
-      </c>
-      <c r="Q9">
-        <v>0.05641789540200001</v>
-      </c>
-      <c r="R9">
-        <v>0.3385073724120001</v>
-      </c>
-      <c r="S9">
-        <v>0.01003589543684105</v>
-      </c>
-      <c r="T9">
-        <v>0.008528482921236378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.2281945</v>
-      </c>
-      <c r="H10">
-        <v>0.456389</v>
-      </c>
-      <c r="I10">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J10">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.943811</v>
-      </c>
-      <c r="N10">
-        <v>3.887622</v>
-      </c>
-      <c r="O10">
-        <v>0.1513023306716375</v>
-      </c>
-      <c r="P10">
-        <v>0.106225614813881</v>
-      </c>
-      <c r="Q10">
-        <v>0.4435669792395001</v>
-      </c>
-      <c r="R10">
-        <v>1.774267916958</v>
-      </c>
-      <c r="S10">
-        <v>0.07890389726812209</v>
-      </c>
-      <c r="T10">
-        <v>0.04470157775192233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.2281945</v>
-      </c>
-      <c r="H11">
-        <v>0.456389</v>
-      </c>
-      <c r="I11">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J11">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.373651</v>
-      </c>
-      <c r="N11">
-        <v>1.120953</v>
-      </c>
-      <c r="O11">
-        <v>0.02908424078153073</v>
-      </c>
-      <c r="P11">
-        <v>0.03062898646073726</v>
-      </c>
-      <c r="Q11">
-        <v>0.08526510311950002</v>
-      </c>
-      <c r="R11">
-        <v>0.5115906187170001</v>
-      </c>
-      <c r="S11">
-        <v>0.0151673800169518</v>
-      </c>
-      <c r="T11">
-        <v>0.01288920776910682</v>
+        <v>0.02812780008483244</v>
       </c>
     </row>
   </sheetData>
